--- a/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,302 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Baker &amp; Nelson_2005_ASQ_Creating Something from Nothing.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P24_Baker &amp; Nelson_2005_ASQ_Creating Something from Nothing.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P24_Baker &amp; Nelson_2005_ASQ_Creating Something from Nothing.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Janssens &amp; Zanoni_2005_HR_Many diversities for many services - theorizing diversity in service companies.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F1_P17_Janssens &amp; Zanoni_2005_HR_Many diversities for many services - theorizing diversity in service companies.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P17_Janssens &amp; Zanoni_2005_HR_Many diversities for many services - theorizing diversity in service companies.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F1_P4_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P4_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P14_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F2_P14_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P15_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P15_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F2_P11_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F2_P11_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F3_P12_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F3_P12_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F4_P15_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F4_P15_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +776,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F1_P19_Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P19_Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P20_Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P20_Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1_P16_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P16_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P14_Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P14_Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F1_P9_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P9_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>data collection, data analysis, data gathering diagrams</t>
         </is>
       </c>
       <c r="I4" t="b">

--- a/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2005_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -584,11 +573,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>data collection, data analysis, data gathering diagrams</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -624,9 +610,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -695,11 +675,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -732,11 +709,8 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -772,9 +746,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -843,11 +811,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -883,9 +848,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -954,11 +913,8 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
   </sheetData>
